--- a/Manual_Testing.xlsx
+++ b/Manual_Testing.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K i n G\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K i n G\OneDrive\Desktop\Saucedemo_Manual_Testing_Project\Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E413E85-1AB1-4C7E-82F7-B8F6F9EFD59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD030FC2-8C39-473C-9065-2E7CCE2A589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="450" windowWidth="17625" windowHeight="10080" xr2:uid="{3546C3F8-66DC-4DEB-BE78-D7479F8B69D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="Bug Report" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Cases for Login " sheetId="1" r:id="rId1"/>
+    <sheet name="Bug Report for Login" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -43,22 +40,22 @@
     <t>Test Scenario</t>
   </si>
   <si>
+    <t>Precondition</t>
+  </si>
+  <si>
     <t>Steps</t>
   </si>
   <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
     <t>TC001</t>
-  </si>
-  <si>
-    <t>Precondition</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Priority</t>
   </si>
   <si>
     <t>Verify Login with valid credentials</t>
@@ -182,18 +179,104 @@
   </si>
   <si>
     <t>User login should succeed but UI may have visual glitches</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>BUG 001</t>
+  </si>
+  <si>
+    <t>Product images appear broken when logged in as (problem_user)</t>
+  </si>
+  <si>
+    <t>User is on login page of saucedemo.com</t>
+  </si>
+  <si>
+    <t>1-Open https://www.saucedemo.com/
+2-Enter username (problem_user)
+3-Enter password(secret_sauce)
+4-Click Login</t>
+  </si>
+  <si>
+    <t>some product images are missing or not loaded correctly .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All product images should display properly after login </t>
+  </si>
+  <si>
+    <t>BUG 002</t>
+  </si>
+  <si>
+    <t>Product page shows visual glitches for (visual_user)</t>
+  </si>
+  <si>
+    <t>1-Open https://www.saucedemo.com/
+2-Enter username (visual_user)
+3-Enter password(secret_sauce)
+4-Click Login</t>
+  </si>
+  <si>
+    <t>Some UI elements (like buttons, layout, or product images) appear misaligned or visually distorted.</t>
+  </si>
+  <si>
+    <t>Page layout and visuals should be consistent and properly aligned.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>BUG 003</t>
+  </si>
+  <si>
+    <t>Slow page load when loggin in as (performance_glitch_user)</t>
+  </si>
+  <si>
+    <t>1-Open http:/www.saucedemo.com/
+2-Enter username(performance_glitch_user)
+3-Entr password (secret_sauce)
+4-Click Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login takes several seconds before redirecting to inventory page </t>
+  </si>
+  <si>
+    <t>Login should redierct within 3 seconds normal conditions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,8 +284,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -214,16 +319,8 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -253,16 +350,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -270,43 +367,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,7 +479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -401,26 +512,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -453,23 +547,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,234 +689,229 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4A0438-6CC8-4D14-B8E8-4954240B0B58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="74.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7" ht="45">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:7" ht="45">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:7" ht="60">
+      <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:7" ht="60">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:7" ht="60">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7" ht="45">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:7" ht="45">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -852,13 +924,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B5CB7D-1750-4FB8-AB1C-76E16AC84F3C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
+    <col min="5" max="5" width="91" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60">
+      <c r="A4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Manual_Testing.xlsx
+++ b/Manual_Testing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K i n G\OneDrive\Desktop\Saucedemo_Manual_Testing_Project\Manual_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD030FC2-8C39-473C-9065-2E7CCE2A589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE5BCA-78A8-4574-85D9-BAA536BAC991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases for Login " sheetId="1" r:id="rId1"/>
-    <sheet name="Bug Report for Login" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Cases of Add to Cart" sheetId="3" r:id="rId2"/>
+    <sheet name="Bug Report for Login" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -257,6 +258,53 @@
   </si>
   <si>
     <t>Login should redierct within 3 seconds normal conditions</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add single to cart </t>
+  </si>
+  <si>
+    <t>User logged in (standard_user)on inventory page</t>
+  </si>
+  <si>
+    <t>1-Open inventory
+2-Click Add to cart on first product</t>
+  </si>
+  <si>
+    <t>Product is added ,cart badge shows (1)product appear in cart page</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add all items to cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Userlogged in on inventory page </t>
+  </si>
+  <si>
+    <t>1-Click Add to cart for every product</t>
+  </si>
+  <si>
+    <t>Cart badge number equals total products(6);all items listed in Cart</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>Remove item from cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least one item in cart </t>
+  </si>
+  <si>
+    <t>1-Go to Cart
+2-Click Remove on a product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item removed,cart badge decreased product not listed in cart </t>
   </si>
 </sst>
 </file>
@@ -405,7 +453,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,10 +742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -924,10 +975,132 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD291F1E-B2D4-4A5F-B394-11D012CD1236}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="56.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25">
+      <c r="A3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
